--- a/conditions/schedules/train_y_first/red_square_00/top_left/inputTrain_1.7.xlsx
+++ b/conditions/schedules/train_y_first/red_square_00/top_left/inputTrain_1.7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\gcasa\g-casa_children_task\conditions\schedules\train_y_first\x_increasing_steps\bottom_left\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Dropbox\PC (2)\Downloads\g-casa_children_task-master\g-casa_children_task-master\conditions\schedules\train_y_first\red_square_00\top_left\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9B62D2-183A-444B-B2A9-C0D14F5B234D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA3EBC-3728-4F19-B163-5366E8F65EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -457,16 +459,16 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>5</v>
